--- a/project/OtherAssets/Excle/A_Default/厨房.xlsx
+++ b/project/OtherAssets/Excle/A_Default/厨房.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="19185" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kitchen" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="68">
   <si>
     <t>厨具Id</t>
   </si>
@@ -209,52 +209,16 @@
     <t>1_2</t>
   </si>
   <si>
-    <t>shop_facility_20011</t>
-  </si>
-  <si>
-    <t>shop_facility_20012</t>
-  </si>
-  <si>
-    <t>shop_facility_20013</t>
-  </si>
-  <si>
-    <t>shop_facility_20014</t>
-  </si>
-  <si>
-    <t>shop_facility_20031</t>
-  </si>
-  <si>
-    <t>shop_facility_20032</t>
-  </si>
-  <si>
-    <t>shop_facility_20033</t>
-  </si>
-  <si>
-    <t>shop_facility_20034</t>
-  </si>
-  <si>
-    <t>shop_facility_20041</t>
-  </si>
-  <si>
-    <t>shop_facility_20042</t>
-  </si>
-  <si>
-    <t>shop_facility_20043</t>
-  </si>
-  <si>
-    <t>shop_facility_20044</t>
-  </si>
-  <si>
-    <t>shop_decoration_20071</t>
-  </si>
-  <si>
-    <t>shop_decoration_20072</t>
-  </si>
-  <si>
-    <t>shop_decoration_20073</t>
-  </si>
-  <si>
-    <t>shop_decoration_20074</t>
+    <t>桌椅1</t>
+  </si>
+  <si>
+    <t>桌椅2</t>
+  </si>
+  <si>
+    <t>桌椅3</t>
+  </si>
+  <si>
+    <t>落地灯</t>
   </si>
 </sst>
 </file>
@@ -262,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -277,40 +241,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,17 +275,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,11 +299,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,14 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -397,14 +330,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -429,187 +393,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,6 +584,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -656,56 +668,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,145 +692,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2011,7 +1975,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2130,7 +2094,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -2159,7 +2123,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2188,7 +2152,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -2217,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -2246,7 +2210,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -2275,7 +2239,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -2304,7 +2268,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -2333,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2362,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -2391,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -2420,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2449,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -2478,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -2507,7 +2471,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -2536,7 +2500,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H18">
         <v>10</v>

--- a/project/OtherAssets/Excle/A_Default/厨房.xlsx
+++ b/project/OtherAssets/Excle/A_Default/厨房.xlsx
@@ -4,29 +4,57 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19185" windowHeight="12135" activeTab="1"/>
+    <workbookView windowWidth="26115" windowHeight="11310"/>
   </bookViews>
   <sheets>
-    <sheet name="Kitchen" sheetId="1" r:id="rId1"/>
-    <sheet name="Chair" sheetId="2" r:id="rId2"/>
+    <sheet name="Kitchen" sheetId="3" r:id="rId1"/>
+    <sheet name="KitchenLevel" sheetId="1" r:id="rId2"/>
+    <sheet name="Chair" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="68">
-  <si>
-    <t>厨具Id</t>
-  </si>
-  <si>
-    <t>厨具等级</t>
-  </si>
-  <si>
-    <t>厨具名称</t>
-  </si>
-  <si>
-    <t>厨具介绍</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="51">
+  <si>
+    <t>厨房设施ID</t>
+  </si>
+  <si>
+    <t>厨房设施图标</t>
+  </si>
+  <si>
+    <t>ID_i</t>
+  </si>
+  <si>
+    <t>Icon_s</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>厨房操作台</t>
+  </si>
+  <si>
+    <t>收纳</t>
+  </si>
+  <si>
+    <t>洗碗池</t>
+  </si>
+  <si>
+    <t>灶台</t>
+  </si>
+  <si>
+    <t>厨房设施Id</t>
+  </si>
+  <si>
+    <t>设施等级</t>
+  </si>
+  <si>
+    <t>设施名称</t>
+  </si>
+  <si>
+    <t>设施介绍</t>
   </si>
   <si>
     <t>建造初始价格_增长倍率</t>
@@ -44,9 +72,6 @@
     <t>当前阶段最大等级</t>
   </si>
   <si>
-    <t>ID_i</t>
-  </si>
-  <si>
     <t>level_i</t>
   </si>
   <si>
@@ -65,9 +90,6 @@
     <t>reward_i</t>
   </si>
   <si>
-    <t>Icon_s</t>
-  </si>
-  <si>
     <t>maxLevel_i</t>
   </si>
   <si>
@@ -80,94 +102,22 @@
     <t>10_2</t>
   </si>
   <si>
-    <t>shop_shtall_20011</t>
-  </si>
-  <si>
     <t>200_2</t>
   </si>
   <si>
     <t>20_2</t>
   </si>
   <si>
-    <t>shop_shtall_20012</t>
-  </si>
-  <si>
     <t>400_2</t>
   </si>
   <si>
     <t>30_2</t>
   </si>
   <si>
-    <t>shop_shtall_20013</t>
-  </si>
-  <si>
     <t>800_2</t>
   </si>
   <si>
     <t>40_2</t>
-  </si>
-  <si>
-    <t>shop_shtall_20014</t>
-  </si>
-  <si>
-    <t>shop_shtall_20021</t>
-  </si>
-  <si>
-    <t>shop_shtall_20022</t>
-  </si>
-  <si>
-    <t>shop_shtall_20023</t>
-  </si>
-  <si>
-    <t>shop_shtall_20024</t>
-  </si>
-  <si>
-    <t>shop_shtall_20031</t>
-  </si>
-  <si>
-    <t>shop_shtall_20032</t>
-  </si>
-  <si>
-    <t>shop_shtall_20033</t>
-  </si>
-  <si>
-    <t>shop_shtall_20034</t>
-  </si>
-  <si>
-    <t>shop_shtall_20041</t>
-  </si>
-  <si>
-    <t>shop_shtall_20042</t>
-  </si>
-  <si>
-    <t>shop_shtall_20043</t>
-  </si>
-  <si>
-    <t>shop_shtall_20044</t>
-  </si>
-  <si>
-    <t>shop_shtall_20051</t>
-  </si>
-  <si>
-    <t>shop_shtall_20052</t>
-  </si>
-  <si>
-    <t>shop_shtall_20053</t>
-  </si>
-  <si>
-    <t>shop_shtall_20054</t>
-  </si>
-  <si>
-    <t>shop_shtall_20061</t>
-  </si>
-  <si>
-    <t>shop_shtall_20062</t>
-  </si>
-  <si>
-    <t>shop_shtall_20063</t>
-  </si>
-  <si>
-    <t>shop_shtall_20064</t>
   </si>
   <si>
     <t>id</t>
@@ -241,6 +191,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,21 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,10 +227,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,34 +272,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,16 +296,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +307,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,15 +328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +534,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,7 +574,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,15 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -646,6 +605,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,26 +634,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -692,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,10 +1140,87 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="H11" sqref="H3 H7 H15 H19 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1210,60 +1237,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1274,22 +1301,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -1303,22 +1330,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -1332,22 +1359,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -1361,22 +1388,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -1390,22 +1417,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -1419,22 +1446,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -1448,22 +1475,22 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1477,22 +1504,22 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1506,22 +1533,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1535,22 +1562,22 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1564,22 +1591,22 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -1593,22 +1620,22 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -1622,22 +1649,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -1651,22 +1678,22 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -1680,22 +1707,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -1709,22 +1736,22 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -1738,22 +1765,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -1767,22 +1794,22 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1796,22 +1823,22 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -1825,140 +1852,24 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>1006</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>1006</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>1006</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>1006</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26">
         <v>10</v>
       </c>
     </row>
@@ -1969,12 +1880,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1989,60 +1900,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2053,19 +1964,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -2082,19 +1993,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -2111,19 +2022,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2140,19 +2051,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -2169,19 +2080,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -2198,19 +2109,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -2227,19 +2138,19 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -2256,19 +2167,19 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -2285,19 +2196,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2314,19 +2225,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -2343,19 +2254,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -2372,19 +2283,19 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2401,19 +2312,19 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -2430,19 +2341,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -2459,19 +2370,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -2488,19 +2399,19 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H18">
         <v>10</v>

--- a/project/OtherAssets/Excle/A_Default/厨房.xlsx
+++ b/project/OtherAssets/Excle/A_Default/厨房.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26115" windowHeight="11310"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kitchen" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="53">
   <si>
     <t>厨房设施ID</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>落地灯</t>
+  </si>
+  <si>
+    <t>隔断</t>
+  </si>
+  <si>
+    <t>取餐</t>
   </si>
 </sst>
 </file>
@@ -176,9 +182,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -187,6 +193,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,28 +220,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +251,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -242,17 +279,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,17 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,16 +311,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,22 +327,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,12 +349,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,174 +530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,39 +540,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,21 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -616,6 +574,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,6 +607,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,141 +660,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1142,7 +1149,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1220,7 +1227,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H3 H7 H15 H19 H11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1294,8 +1301,8 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
-        <v>1001</v>
+      <c r="A3" s="2">
+        <v>22010</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1303,7 +1310,7 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
@@ -1323,8 +1330,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1001</v>
+      <c r="A4" s="2">
+        <v>22010</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1352,8 +1359,8 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
-        <v>1001</v>
+      <c r="A5" s="2">
+        <v>22010</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1361,7 +1368,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
@@ -1381,8 +1388,8 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
-        <v>1001</v>
+      <c r="A6" s="2">
+        <v>22010</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1410,8 +1417,8 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7">
-        <v>1002</v>
+      <c r="A7" s="2">
+        <v>22011</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1419,7 +1426,7 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
@@ -1439,8 +1446,8 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8">
-        <v>1002</v>
+      <c r="A8" s="2">
+        <v>22011</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1468,8 +1475,8 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9">
-        <v>1002</v>
+      <c r="A9" s="2">
+        <v>22011</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1477,7 +1484,7 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
@@ -1497,8 +1504,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10">
-        <v>1002</v>
+      <c r="A10" s="2">
+        <v>22011</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1526,8 +1533,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11">
-        <v>1003</v>
+      <c r="A11" s="2">
+        <v>22012</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1535,7 +1542,7 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
@@ -1555,8 +1562,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12">
-        <v>1003</v>
+      <c r="A12" s="2">
+        <v>22012</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1584,8 +1591,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13">
-        <v>1003</v>
+      <c r="A13" s="2">
+        <v>22012</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1593,7 +1600,7 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
@@ -1613,8 +1620,8 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14">
-        <v>1003</v>
+      <c r="A14" s="2">
+        <v>22012</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -1642,8 +1649,8 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15">
-        <v>1004</v>
+      <c r="A15" s="2">
+        <v>22013</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1651,7 +1658,7 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
@@ -1671,8 +1678,8 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16">
-        <v>1004</v>
+      <c r="A16" s="2">
+        <v>22013</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1700,8 +1707,8 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17">
-        <v>1004</v>
+      <c r="A17" s="2">
+        <v>22013</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1709,7 +1716,7 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
@@ -1729,8 +1736,8 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18">
-        <v>1004</v>
+      <c r="A18" s="2">
+        <v>22013</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1758,8 +1765,8 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19">
-        <v>1005</v>
+      <c r="A19" s="2">
+        <v>22014</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1767,7 +1774,7 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
@@ -1787,8 +1794,8 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20">
-        <v>1005</v>
+      <c r="A20" s="2">
+        <v>22014</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1816,8 +1823,8 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21">
-        <v>1005</v>
+      <c r="A21" s="2">
+        <v>22014</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1825,7 +1832,7 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
@@ -1845,8 +1852,8 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22">
-        <v>1005</v>
+      <c r="A22" s="2">
+        <v>22014</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1885,8 +1892,8 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2420,29 +2427,237 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="7:7">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="7:7">
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="7:7">
-      <c r="G26" s="1"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>22008</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>22008</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>22008</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>22008</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22006</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>22006</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>22006</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>22006</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/OtherAssets/Excle/A_Default/厨房.xlsx
+++ b/project/OtherAssets/Excle/A_Default/厨房.xlsx
@@ -4,35 +4,103 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Kitchen" sheetId="3" r:id="rId1"/>
-    <sheet name="KitchenLevel" sheetId="1" r:id="rId2"/>
-    <sheet name="Chair" sheetId="2" r:id="rId3"/>
+    <sheet name="KitchenLevel" sheetId="1" r:id="rId1"/>
+    <sheet name="Chair" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="53">
-  <si>
-    <t>厨房设施ID</t>
-  </si>
-  <si>
-    <t>厨房设施图标</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="87">
+  <si>
+    <t>厨房设施Id</t>
+  </si>
+  <si>
+    <t>设施等级</t>
+  </si>
+  <si>
+    <t>设施名称</t>
+  </si>
+  <si>
+    <t>设施介绍</t>
+  </si>
+  <si>
+    <t>建造初始价格_增长倍率</t>
+  </si>
+  <si>
+    <t>每阶段升级初始价格_增长倍率</t>
+  </si>
+  <si>
+    <t>当前阶段升级奖励</t>
+  </si>
+  <si>
+    <t>图标Icon</t>
+  </si>
+  <si>
+    <t>当前阶段最大等级</t>
   </si>
   <si>
     <t>ID_i</t>
   </si>
   <si>
+    <t>level_i</t>
+  </si>
+  <si>
+    <t>Name_iam</t>
+  </si>
+  <si>
+    <t>Intro_iam</t>
+  </si>
+  <si>
+    <t>buildPrice_iam</t>
+  </si>
+  <si>
+    <t>upgradePrice_iam</t>
+  </si>
+  <si>
+    <t>reward_i</t>
+  </si>
+  <si>
     <t>Icon_s</t>
   </si>
   <si>
+    <t>maxLevel_i</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>100_2</t>
+  </si>
+  <si>
+    <t>10_2</t>
+  </si>
+  <si>
     <t>冰箱</t>
   </si>
   <si>
+    <t>200_2</t>
+  </si>
+  <si>
+    <t>20_2</t>
+  </si>
+  <si>
+    <t>400_2</t>
+  </si>
+  <si>
+    <t>30_2</t>
+  </si>
+  <si>
+    <t>800_2</t>
+  </si>
+  <si>
+    <t>40_2</t>
+  </si>
+  <si>
     <t>厨房操作台</t>
   </si>
   <si>
@@ -45,81 +113,6 @@
     <t>灶台</t>
   </si>
   <si>
-    <t>厨房设施Id</t>
-  </si>
-  <si>
-    <t>设施等级</t>
-  </si>
-  <si>
-    <t>设施名称</t>
-  </si>
-  <si>
-    <t>设施介绍</t>
-  </si>
-  <si>
-    <t>建造初始价格_增长倍率</t>
-  </si>
-  <si>
-    <t>每阶段升级初始价格_增长倍率</t>
-  </si>
-  <si>
-    <t>当前阶段升级奖励</t>
-  </si>
-  <si>
-    <t>图标Icon</t>
-  </si>
-  <si>
-    <t>当前阶段最大等级</t>
-  </si>
-  <si>
-    <t>level_i</t>
-  </si>
-  <si>
-    <t>Name_iam</t>
-  </si>
-  <si>
-    <t>Intro_iam</t>
-  </si>
-  <si>
-    <t>buildPrice_iam</t>
-  </si>
-  <si>
-    <t>upgradePrice_iam</t>
-  </si>
-  <si>
-    <t>reward_i</t>
-  </si>
-  <si>
-    <t>maxLevel_i</t>
-  </si>
-  <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>100_2</t>
-  </si>
-  <si>
-    <t>10_2</t>
-  </si>
-  <si>
-    <t>200_2</t>
-  </si>
-  <si>
-    <t>20_2</t>
-  </si>
-  <si>
-    <t>400_2</t>
-  </si>
-  <si>
-    <t>30_2</t>
-  </si>
-  <si>
-    <t>800_2</t>
-  </si>
-  <si>
-    <t>40_2</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -156,25 +149,133 @@
     <t>type_i</t>
   </si>
   <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>Chair1</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>5_4</t>
+  </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>5_5</t>
+  </si>
+  <si>
+    <t>8_5</t>
+  </si>
+  <si>
+    <t>5_12</t>
+  </si>
+  <si>
+    <t>8_12</t>
+  </si>
+  <si>
+    <t>CHair2</t>
+  </si>
+  <si>
+    <t>5_13</t>
+  </si>
+  <si>
+    <t>8_13</t>
+  </si>
+  <si>
+    <t>Chair2</t>
+  </si>
+  <si>
+    <t>5_14</t>
+  </si>
+  <si>
+    <t>8_14</t>
+  </si>
+  <si>
+    <t>5_15</t>
+  </si>
+  <si>
+    <t>8_15</t>
+  </si>
+  <si>
+    <t>5_17</t>
+  </si>
+  <si>
+    <t>8_17</t>
+  </si>
+  <si>
+    <t>Chair3</t>
+  </si>
+  <si>
+    <t>5_18</t>
+  </si>
+  <si>
+    <t>8_18</t>
+  </si>
+  <si>
+    <t>5_19</t>
+  </si>
+  <si>
+    <t>8_19</t>
+  </si>
+  <si>
+    <t>5_20</t>
+  </si>
+  <si>
+    <t>8_20</t>
+  </si>
+  <si>
     <t>1_2</t>
   </si>
   <si>
-    <t>桌椅1</t>
-  </si>
-  <si>
-    <t>桌椅2</t>
-  </si>
-  <si>
-    <t>桌椅3</t>
-  </si>
-  <si>
-    <t>落地灯</t>
+    <t>Floorlamp</t>
   </si>
   <si>
     <t>隔断</t>
   </si>
   <si>
+    <t>5_27</t>
+  </si>
+  <si>
+    <t>8_27</t>
+  </si>
+  <si>
     <t>取餐</t>
+  </si>
+  <si>
+    <t>5_28</t>
+  </si>
+  <si>
+    <t>8_28</t>
+  </si>
+  <si>
+    <t>5_29</t>
+  </si>
+  <si>
+    <t>8_29</t>
+  </si>
+  <si>
+    <t>5_30</t>
+  </si>
+  <si>
+    <t>8_30</t>
+  </si>
+  <si>
+    <t>镜子</t>
+  </si>
+  <si>
+    <t>洗脸池</t>
+  </si>
+  <si>
+    <t>地块</t>
   </si>
 </sst>
 </file>
@@ -184,8 +285,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -196,69 +297,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,33 +318,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,9 +333,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,8 +433,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,7 +450,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +504,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,13 +534,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,145 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,11 +644,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +691,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -578,17 +718,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,39 +741,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,153 +749,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1147,83 +1249,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1244,60 +1269,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1308,22 +1333,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -1337,22 +1362,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -1366,22 +1391,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -1395,22 +1420,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -1424,22 +1449,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -1453,22 +1478,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -1482,22 +1507,22 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1511,22 +1536,22 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1540,22 +1565,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1569,22 +1594,22 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1598,22 +1623,22 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -1627,22 +1652,22 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -1656,22 +1681,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -1685,22 +1710,22 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -1714,22 +1739,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -1743,22 +1768,22 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -1772,22 +1797,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -1801,22 +1826,22 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1830,22 +1855,22 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
         <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
       </c>
       <c r="G21">
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -1859,22 +1884,22 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I22">
         <v>10</v>
@@ -1887,13 +1912,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1907,60 +1932,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1971,19 +1996,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -2000,19 +2025,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -2029,19 +2054,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2058,19 +2083,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -2087,19 +2112,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -2116,19 +2141,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -2145,19 +2170,19 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -2174,19 +2199,19 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -2203,19 +2228,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2232,19 +2257,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -2261,19 +2286,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -2290,19 +2315,19 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2319,19 +2344,19 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -2348,19 +2373,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -2377,19 +2402,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -2406,19 +2431,19 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -2435,19 +2460,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -2464,19 +2489,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -2493,19 +2518,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -2522,19 +2547,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -2551,25 +2576,25 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2580,25 +2605,25 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2609,25 +2634,25 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2638,25 +2663,489 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3">
+        <v>22015</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3">
+        <v>22015</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="3">
+        <v>22015</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="3">
+        <v>22015</v>
+      </c>
+      <c r="B30">
         <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3">
+        <v>22016</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="3">
+        <v>22016</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="3">
+        <v>22016</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="3">
+        <v>22016</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="3">
+        <v>22017</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="3">
+        <v>22017</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="3">
+        <v>22017</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="3">
+        <v>22017</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="3">
+        <v>22018</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="3">
+        <v>22018</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="3">
+        <v>22018</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="3">
+        <v>22018</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/project/OtherAssets/Excle/A_Default/厨房.xlsx
+++ b/project/OtherAssets/Excle/A_Default/厨房.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="12390" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KitchenLevel" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="105">
   <si>
     <t>厨房设施Id</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>8_20</t>
+  </si>
+  <si>
+    <t>露台底座</t>
+  </si>
+  <si>
+    <t>Carpet</t>
   </si>
   <si>
     <t>取餐区</t>
@@ -331,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -346,7 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,37 +367,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,9 +380,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +403,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -428,8 +418,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -445,23 +451,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,6 +468,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,7 +504,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,37 +540,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,49 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +606,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,61 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,17 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,15 +742,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,6 +756,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -797,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,137 +815,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,6 +954,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1385,7 +1400,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>22010</v>
       </c>
       <c r="B3">
@@ -1394,7 +1409,7 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
@@ -1406,7 +1421,7 @@
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I3">
@@ -1414,7 +1429,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>22010</v>
       </c>
       <c r="B4">
@@ -1435,7 +1450,7 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I4">
@@ -1443,7 +1458,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>22010</v>
       </c>
       <c r="B5">
@@ -1452,7 +1467,7 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -1464,7 +1479,7 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I5">
@@ -1472,7 +1487,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>22010</v>
       </c>
       <c r="B6">
@@ -1493,7 +1508,7 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I6">
@@ -1501,7 +1516,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>22011</v>
       </c>
       <c r="B7">
@@ -1510,7 +1525,7 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
@@ -1522,7 +1537,7 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I7">
@@ -1530,7 +1545,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="7">
         <v>22011</v>
       </c>
       <c r="B8">
@@ -1551,7 +1566,7 @@
       <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I8">
@@ -1559,7 +1574,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>22011</v>
       </c>
       <c r="B9">
@@ -1568,7 +1583,7 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
@@ -1580,7 +1595,7 @@
       <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I9">
@@ -1588,7 +1603,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="7">
         <v>22011</v>
       </c>
       <c r="B10">
@@ -1609,7 +1624,7 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="I10">
@@ -1617,7 +1632,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="7">
         <v>22012</v>
       </c>
       <c r="B11">
@@ -1626,7 +1641,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
@@ -1638,7 +1653,7 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I11">
@@ -1646,7 +1661,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="7">
         <v>22012</v>
       </c>
       <c r="B12">
@@ -1667,7 +1682,7 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I12">
@@ -1675,7 +1690,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="A13" s="7">
         <v>22012</v>
       </c>
       <c r="B13">
@@ -1684,7 +1699,7 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
@@ -1696,7 +1711,7 @@
       <c r="G13">
         <v>5</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I13">
@@ -1704,7 +1719,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="7">
         <v>22012</v>
       </c>
       <c r="B14">
@@ -1725,7 +1740,7 @@
       <c r="G14">
         <v>5</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I14">
@@ -1733,7 +1748,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <v>22013</v>
       </c>
       <c r="B15">
@@ -1742,7 +1757,7 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
@@ -1754,7 +1769,7 @@
       <c r="G15">
         <v>5</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I15">
@@ -1762,7 +1777,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="7">
         <v>22013</v>
       </c>
       <c r="B16">
@@ -1783,7 +1798,7 @@
       <c r="G16">
         <v>5</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I16">
@@ -1791,7 +1806,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="7">
         <v>22013</v>
       </c>
       <c r="B17">
@@ -1800,7 +1815,7 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
@@ -1812,7 +1827,7 @@
       <c r="G17">
         <v>5</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I17">
@@ -1820,7 +1835,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4">
+      <c r="A18" s="7">
         <v>22013</v>
       </c>
       <c r="B18">
@@ -1841,7 +1856,7 @@
       <c r="G18">
         <v>5</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I18">
@@ -1849,7 +1864,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="A19" s="7">
         <v>22014</v>
       </c>
       <c r="B19">
@@ -1858,7 +1873,7 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
@@ -1870,7 +1885,7 @@
       <c r="G19">
         <v>5</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I19">
@@ -1878,7 +1893,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4">
+      <c r="A20" s="7">
         <v>22014</v>
       </c>
       <c r="B20">
@@ -1899,7 +1914,7 @@
       <c r="G20">
         <v>5</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I20">
@@ -1907,7 +1922,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4">
+      <c r="A21" s="7">
         <v>22014</v>
       </c>
       <c r="B21">
@@ -1916,7 +1931,7 @@
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
@@ -1928,7 +1943,7 @@
       <c r="G21">
         <v>5</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I21">
@@ -1936,7 +1951,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4">
+      <c r="A22" s="7">
         <v>22014</v>
       </c>
       <c r="B22">
@@ -1957,7 +1972,7 @@
       <c r="G22">
         <v>5</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I22">
@@ -1974,10 +1989,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E19" sqref="E19:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2570,148 +2585,148 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
+        <v>32011</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>32011</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>32011</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
+        <v>32011</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
         <v>22006</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <v>22006</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <v>22006</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <v>22006</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3">
-        <v>22015</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
@@ -2719,31 +2734,31 @@
       <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>91</v>
+      <c r="H23" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3">
-        <v>22015</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>90</v>
+      <c r="A24" s="1">
+        <v>22006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>20</v>
@@ -2751,31 +2766,31 @@
       <c r="G24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>91</v>
+      <c r="H24" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="3">
-        <v>22015</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>90</v>
+      <c r="A25" s="1">
+        <v>22006</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
@@ -2783,31 +2798,31 @@
       <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>91</v>
+      <c r="H25" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="3">
-        <v>22015</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>90</v>
+      <c r="A26" s="1">
+        <v>22006</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
@@ -2815,19 +2830,19 @@
       <c r="G26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>91</v>
+      <c r="H26" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="3">
-        <v>22016</v>
+      <c r="A27" s="6">
+        <v>22015</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>92</v>
@@ -2858,8 +2873,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="3">
-        <v>22016</v>
+      <c r="A28" s="6">
+        <v>22015</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>92</v>
@@ -2890,8 +2905,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="3">
-        <v>22016</v>
+      <c r="A29" s="6">
+        <v>22015</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>92</v>
@@ -2922,8 +2937,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="3">
-        <v>22016</v>
+      <c r="A30" s="6">
+        <v>22015</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>92</v>
@@ -2954,8 +2969,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="3">
-        <v>22017</v>
+      <c r="A31" s="6">
+        <v>22016</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>94</v>
@@ -2986,8 +3001,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="3">
-        <v>22017</v>
+      <c r="A32" s="6">
+        <v>22016</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>94</v>
@@ -3018,8 +3033,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="3">
-        <v>22017</v>
+      <c r="A33" s="6">
+        <v>22016</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>94</v>
@@ -3050,8 +3065,8 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="3">
-        <v>22017</v>
+      <c r="A34" s="6">
+        <v>22016</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>94</v>
@@ -3082,8 +3097,8 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="3">
-        <v>22018</v>
+      <c r="A35" s="6">
+        <v>22017</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>96</v>
@@ -3114,8 +3129,8 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="3">
-        <v>22018</v>
+      <c r="A36" s="6">
+        <v>22017</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>96</v>
@@ -3146,8 +3161,8 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="3">
-        <v>22018</v>
+      <c r="A37" s="6">
+        <v>22017</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>96</v>
@@ -3178,8 +3193,8 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="3">
-        <v>22018</v>
+      <c r="A38" s="6">
+        <v>22017</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>96</v>
@@ -3210,10 +3225,10 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="1">
-        <v>12007</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="6">
+        <v>22018</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C39" s="1">
@@ -3238,14 +3253,14 @@
         <v>10</v>
       </c>
       <c r="J39" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="1">
-        <v>12007</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="6">
+        <v>22018</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C40" s="1">
@@ -3270,14 +3285,14 @@
         <v>10</v>
       </c>
       <c r="J40" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1">
-        <v>12007</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="6">
+        <v>22018</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="1">
@@ -3302,14 +3317,14 @@
         <v>10</v>
       </c>
       <c r="J41" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1">
-        <v>12007</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="6">
+        <v>22018</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="1">
@@ -3334,14 +3349,14 @@
         <v>10</v>
       </c>
       <c r="J42" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="3">
-        <v>32009</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="1">
+        <v>12007</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="1">
@@ -3360,7 +3375,7 @@
         <v>20</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I43" s="1">
         <v>10</v>
@@ -3370,10 +3385,10 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="3">
-        <v>32009</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="1">
+        <v>12007</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="1">
@@ -3392,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I44" s="1">
         <v>10</v>
@@ -3402,10 +3417,10 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="3">
-        <v>32009</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="1">
+        <v>12007</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="1">
@@ -3424,7 +3439,7 @@
         <v>20</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I45" s="1">
         <v>10</v>
@@ -3434,10 +3449,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="3">
-        <v>32009</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="1">
+        <v>12007</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="1">
@@ -3456,7 +3471,7 @@
         <v>20</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I46" s="1">
         <v>10</v>
@@ -3466,11 +3481,11 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="3">
-        <v>32010</v>
+      <c r="A47" s="6">
+        <v>32009</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -3488,7 +3503,7 @@
         <v>20</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I47" s="1">
         <v>10</v>
@@ -3498,11 +3513,11 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="3">
-        <v>32010</v>
+      <c r="A48" s="6">
+        <v>32009</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
@@ -3520,7 +3535,7 @@
         <v>20</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I48" s="1">
         <v>10</v>
@@ -3530,11 +3545,11 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="3">
-        <v>32010</v>
+      <c r="A49" s="6">
+        <v>32009</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
@@ -3552,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I49" s="1">
         <v>10</v>
@@ -3562,11 +3577,11 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="3">
-        <v>32010</v>
+      <c r="A50" s="6">
+        <v>32009</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -3584,7 +3599,7 @@
         <v>20</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I50" s="1">
         <v>10</v>
@@ -3593,8 +3608,136 @@
         <v>7</v>
       </c>
     </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="6">
+        <v>32010</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="1">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="6">
+        <v>32010</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" s="1">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="6">
+        <v>32010</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" s="1">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="6">
+        <v>32010</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="1">
+        <v>10</v>
+      </c>
+      <c r="J54" s="1">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:J50">
+  <sortState ref="A3:J54">
     <sortCondition ref="J3"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/OtherAssets/Excle/A_Default/厨房.xlsx
+++ b/project/OtherAssets/Excle/A_Default/厨房.xlsx
@@ -4,18 +4,328 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="KitchenLevel" sheetId="1" r:id="rId1"/>
-    <sheet name="Chair" sheetId="2" r:id="rId2"/>
+    <sheet name="AreaUnlock" sheetId="3" r:id="rId1"/>
+    <sheet name="KitchenLevel" sheetId="1" r:id="rId2"/>
+    <sheet name="Chair" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="204">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>区域图标</t>
+  </si>
+  <si>
+    <t>区域标题</t>
+  </si>
+  <si>
+    <t>区域描述</t>
+  </si>
+  <si>
+    <t>解锁需要的金币</t>
+  </si>
+  <si>
+    <t>id_i</t>
+  </si>
+  <si>
+    <t>bz_s</t>
+  </si>
+  <si>
+    <t>icon_s</t>
+  </si>
+  <si>
+    <t>title_s</t>
+  </si>
+  <si>
+    <t>desc_iam</t>
+  </si>
+  <si>
+    <t>needCoin_i</t>
+  </si>
+  <si>
+    <t>披萨机</t>
+  </si>
+  <si>
+    <t>shop_shtall_20011</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>巨无霸取餐台</t>
+  </si>
+  <si>
+    <t>shop_shtall_20021</t>
+  </si>
+  <si>
+    <t>BigMac</t>
+  </si>
+  <si>
+    <t>7_6</t>
+  </si>
+  <si>
+    <t>寿司取餐台</t>
+  </si>
+  <si>
+    <t>shop_shtall_20031</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>7_11</t>
+  </si>
+  <si>
+    <t>海鲜摊</t>
+  </si>
+  <si>
+    <t>shop_shtall_20041</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>7_16</t>
+  </si>
+  <si>
+    <t>自助冰淇淋</t>
+  </si>
+  <si>
+    <t>shop_shtall_20051</t>
+  </si>
+  <si>
+    <t>IceCream</t>
+  </si>
+  <si>
+    <t>7_21</t>
+  </si>
+  <si>
+    <t>咖啡自助台</t>
+  </si>
+  <si>
+    <t>shop_shtall_20061</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>7_26</t>
+  </si>
+  <si>
+    <t>吧台</t>
+  </si>
+  <si>
+    <t>shop_shtall_20071</t>
+  </si>
+  <si>
+    <t>BarCounter</t>
+  </si>
+  <si>
+    <t>7_31</t>
+  </si>
+  <si>
+    <t>糖果摊</t>
+  </si>
+  <si>
+    <t>shop_shtall_20081</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>7_36</t>
+  </si>
+  <si>
+    <t>巧克力摊</t>
+  </si>
+  <si>
+    <t>shop_shtall_20091</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>7_41</t>
+  </si>
+  <si>
+    <t>果汁机</t>
+  </si>
+  <si>
+    <t>shop_shtall_20101</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>7_46</t>
+  </si>
+  <si>
+    <t>甜点柜</t>
+  </si>
+  <si>
+    <t>shop_shtall_20111</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>7_51</t>
+  </si>
+  <si>
+    <t>可乐机</t>
+  </si>
+  <si>
+    <t>shop_shtall_20121</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>7_56</t>
+  </si>
+  <si>
+    <t>火锅</t>
+  </si>
+  <si>
+    <t>shop_shtall_20131</t>
+  </si>
+  <si>
+    <t>HotPot</t>
+  </si>
+  <si>
+    <t>7_61</t>
+  </si>
+  <si>
+    <t>自助沙拉</t>
+  </si>
+  <si>
+    <t>shop_shtall_20141</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>7_66</t>
+  </si>
+  <si>
+    <t>二楼包间</t>
+  </si>
+  <si>
+    <t>PrivateRoom_Area</t>
+  </si>
+  <si>
+    <t>PrivateRoom</t>
+  </si>
+  <si>
+    <t>13_2</t>
+  </si>
+  <si>
+    <t>吧台用餐区</t>
+  </si>
+  <si>
+    <t>BarCounter_Area</t>
+  </si>
+  <si>
+    <t>13_4</t>
+  </si>
+  <si>
+    <t>普通餐位区</t>
+  </si>
+  <si>
+    <t>CommonDining_Area</t>
+  </si>
+  <si>
+    <t>DiningArea</t>
+  </si>
+  <si>
+    <t>13_6</t>
+  </si>
+  <si>
+    <t>餐厅入口</t>
+  </si>
+  <si>
+    <t>Reception_Area</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>13_8</t>
+  </si>
+  <si>
+    <t>餐具区</t>
+  </si>
+  <si>
+    <t>Tableware_Area</t>
+  </si>
+  <si>
+    <t>TablewareArea</t>
+  </si>
+  <si>
+    <t>13_10</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>Toilet_Area</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>13_12</t>
+  </si>
+  <si>
+    <t>一楼露台</t>
+  </si>
+  <si>
+    <t>Terrace_Area</t>
+  </si>
+  <si>
+    <t>Terrace</t>
+  </si>
+  <si>
+    <t>13_14</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>Kitchen_Area</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>13_16</t>
+  </si>
+  <si>
+    <t>餐厅出口</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>13_18</t>
+  </si>
   <si>
     <t>厨房设施Id</t>
   </si>
@@ -116,9 +426,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>等级</t>
   </si>
   <si>
@@ -140,16 +447,7 @@
     <t>区域类型</t>
   </si>
   <si>
-    <t>bz_s</t>
-  </si>
-  <si>
     <t>name_iam</t>
-  </si>
-  <si>
-    <t>desc_iam</t>
-  </si>
-  <si>
-    <t>icon_s</t>
   </si>
   <si>
     <t>type_i</t>
@@ -338,14 +636,27 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -365,6 +676,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -374,7 +730,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,52 +752,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -443,10 +761,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,13 +779,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,7 +815,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,25 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,19 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,13 +887,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +929,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,79 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,6 +1012,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -714,16 +1040,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,26 +1072,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,15 +1104,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -803,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,137 +1132,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,16 +1281,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1323,659 +1653,1187 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="16.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9">
+        <v>12001</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
+        <v>12002</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>12003</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
+        <v>12004</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9">
+        <v>12005</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9">
+        <v>12006</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9">
+        <v>12007</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9">
+        <v>12008</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9">
+        <v>12009</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9">
+        <v>12010</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>12011</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9">
+        <v>12012</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9">
+        <v>12013</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9">
+        <v>12014</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11">
+        <v>4</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11">
+        <v>5</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11">
+        <v>7</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="11">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="11">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.425" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="25.975" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="20.425" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="13.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.975" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.8666666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
+        <v>22010</v>
+      </c>
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
+        <v>22010</v>
+      </c>
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>22010</v>
+      </c>
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>22010</v>
+      </c>
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="7">
-        <v>22010</v>
-      </c>
-      <c r="B3">
+      <c r="H6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>22011</v>
+      </c>
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
+      <c r="C7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="6">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7">
-        <v>22010</v>
-      </c>
-      <c r="B4">
+      <c r="H7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>22011</v>
+      </c>
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
+      <c r="C8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7">
-        <v>22010</v>
-      </c>
-      <c r="B5">
+      <c r="H8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
+        <v>22011</v>
+      </c>
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
+      <c r="C9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7">
-        <v>22010</v>
-      </c>
-      <c r="B6">
+      <c r="H9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>22011</v>
+      </c>
+      <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
+      <c r="C10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7">
-        <v>22011</v>
-      </c>
-      <c r="B7">
+      <c r="H10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>22012</v>
+      </c>
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
+      <c r="C11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7">
-        <v>22011</v>
-      </c>
-      <c r="B8">
+      <c r="H11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
+        <v>22012</v>
+      </c>
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8">
+      <c r="C12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="6">
         <v>5</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7">
-        <v>22011</v>
-      </c>
-      <c r="B9">
+      <c r="H12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
+        <v>22012</v>
+      </c>
+      <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9">
+      <c r="C13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7">
-        <v>22011</v>
-      </c>
-      <c r="B10">
+      <c r="H13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
+        <v>22012</v>
+      </c>
+      <c r="B14" s="6">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10">
+      <c r="C14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="6">
         <v>5</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7">
-        <v>22012</v>
-      </c>
-      <c r="B11">
+      <c r="H14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3">
+        <v>22013</v>
+      </c>
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11">
+      <c r="C15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="6">
         <v>5</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7">
-        <v>22012</v>
-      </c>
-      <c r="B12">
+      <c r="H15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
+        <v>22013</v>
+      </c>
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12">
+      <c r="C16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="6">
         <v>5</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7">
-        <v>22012</v>
-      </c>
-      <c r="B13">
+      <c r="H16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3">
+        <v>22013</v>
+      </c>
+      <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13">
+      <c r="C17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="6">
         <v>5</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7">
-        <v>22012</v>
-      </c>
-      <c r="B14">
+      <c r="H17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3">
+        <v>22013</v>
+      </c>
+      <c r="B18" s="6">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14">
+      <c r="C18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="6">
         <v>5</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7">
-        <v>22013</v>
-      </c>
-      <c r="B15">
+      <c r="H18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3">
+        <v>22014</v>
+      </c>
+      <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15">
+      <c r="C19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="6">
         <v>5</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="7">
-        <v>22013</v>
-      </c>
-      <c r="B16">
+      <c r="H19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3">
+        <v>22014</v>
+      </c>
+      <c r="B20" s="6">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16">
+      <c r="C20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="6">
         <v>5</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7">
-        <v>22013</v>
-      </c>
-      <c r="B17">
+      <c r="H20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3">
+        <v>22014</v>
+      </c>
+      <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17">
+      <c r="C21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="6">
         <v>5</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="7">
-        <v>22013</v>
-      </c>
-      <c r="B18">
+      <c r="H21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3">
+        <v>22014</v>
+      </c>
+      <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18">
+      <c r="C22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="6">
         <v>5</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="7">
-        <v>22014</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7">
-        <v>22014</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7">
-        <v>22014</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="7">
-        <v>22014</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="6">
         <v>10</v>
       </c>
     </row>
@@ -1986,12 +2844,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E19" sqref="E19:E22"/>
     </sheetView>
   </sheetViews>
@@ -2010,66 +2868,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2077,25 +2935,25 @@
         <v>22001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
@@ -2109,25 +2967,25 @@
         <v>22001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
@@ -2141,25 +2999,25 @@
         <v>22001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
@@ -2173,25 +3031,25 @@
         <v>22001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -2205,25 +3063,25 @@
         <v>22003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
@@ -2237,25 +3095,25 @@
         <v>22003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
@@ -2269,25 +3127,25 @@
         <v>22003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -2301,25 +3159,25 @@
         <v>22003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
@@ -2333,25 +3191,25 @@
         <v>32007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
@@ -2365,25 +3223,25 @@
         <v>32007</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
@@ -2397,25 +3255,25 @@
         <v>32007</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
@@ -2429,25 +3287,25 @@
         <v>32007</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
@@ -2461,25 +3319,25 @@
         <v>22004</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
@@ -2493,25 +3351,25 @@
         <v>22004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
@@ -2525,25 +3383,25 @@
         <v>22004</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
@@ -2557,25 +3415,25 @@
         <v>22004</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
@@ -2589,25 +3447,25 @@
         <v>32011</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
@@ -2621,25 +3479,25 @@
         <v>32011</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
@@ -2653,25 +3511,25 @@
         <v>32011</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
@@ -2685,25 +3543,25 @@
         <v>32011</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -2717,25 +3575,25 @@
         <v>22006</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
@@ -2749,25 +3607,25 @@
         <v>22006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
@@ -2781,25 +3639,25 @@
         <v>22006</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
@@ -2813,25 +3671,25 @@
         <v>22006</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
@@ -2841,29 +3699,29 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>22015</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
@@ -2873,29 +3731,29 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>22015</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
@@ -2905,29 +3763,29 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>22015</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
@@ -2937,29 +3795,29 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>22015</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
@@ -2969,29 +3827,29 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>22016</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
@@ -3001,29 +3859,29 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>22016</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
@@ -3033,29 +3891,29 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>22016</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
@@ -3065,29 +3923,29 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>22016</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
@@ -3097,29 +3955,29 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>22017</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
@@ -3129,29 +3987,29 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>22017</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
@@ -3161,29 +4019,29 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>22017</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
@@ -3193,29 +4051,29 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>22017</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
@@ -3225,29 +4083,29 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>22018</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I39" s="1">
         <v>10</v>
@@ -3257,29 +4115,29 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>22018</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I40" s="1">
         <v>10</v>
@@ -3289,29 +4147,29 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="6">
+      <c r="A41" s="3">
         <v>22018</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I41" s="1">
         <v>10</v>
@@ -3321,29 +4179,29 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>22018</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="I42" s="1">
         <v>10</v>
@@ -3357,25 +4215,25 @@
         <v>12007</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="I43" s="1">
         <v>10</v>
@@ -3389,25 +4247,25 @@
         <v>12007</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="I44" s="1">
         <v>10</v>
@@ -3421,25 +4279,25 @@
         <v>12007</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="I45" s="1">
         <v>10</v>
@@ -3453,25 +4311,25 @@
         <v>12007</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="I46" s="1">
         <v>10</v>
@@ -3481,29 +4339,29 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="6">
+      <c r="A47" s="3">
         <v>32009</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="I47" s="1">
         <v>10</v>
@@ -3513,29 +4371,29 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="6">
+      <c r="A48" s="3">
         <v>32009</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="I48" s="1">
         <v>10</v>
@@ -3545,29 +4403,29 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="6">
+      <c r="A49" s="3">
         <v>32009</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="I49" s="1">
         <v>10</v>
@@ -3577,29 +4435,29 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="6">
+      <c r="A50" s="3">
         <v>32009</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="I50" s="1">
         <v>10</v>
@@ -3609,29 +4467,29 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="6">
+      <c r="A51" s="3">
         <v>32010</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="I51" s="1">
         <v>10</v>
@@ -3641,29 +4499,29 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="6">
+      <c r="A52" s="3">
         <v>32010</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="I52" s="1">
         <v>10</v>
@@ -3673,29 +4531,29 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="6">
+      <c r="A53" s="3">
         <v>32010</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="I53" s="1">
         <v>10</v>
@@ -3705,29 +4563,29 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="6">
+      <c r="A54" s="3">
         <v>32010</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="I54" s="1">
         <v>10</v>

--- a/project/OtherAssets/Excle/A_Default/厨房.xlsx
+++ b/project/OtherAssets/Excle/A_Default/厨房.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23085" windowHeight="10620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AreaUnlock" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="314">
   <si>
     <t>ID</t>
   </si>
@@ -381,7 +381,10 @@
     <t>maxLevel_i</t>
   </si>
   <si>
-    <t>1_1</t>
+    <t>5_92</t>
+  </si>
+  <si>
+    <t>8_92</t>
   </si>
   <si>
     <t>100_2</t>
@@ -393,36 +396,150 @@
     <t>Refrigerator</t>
   </si>
   <si>
+    <t>5_93</t>
+  </si>
+  <si>
+    <t>8_93</t>
+  </si>
+  <si>
     <t>200_2</t>
   </si>
   <si>
     <t>20_2</t>
   </si>
   <si>
+    <t>5_94</t>
+  </si>
+  <si>
+    <t>8_94</t>
+  </si>
+  <si>
     <t>400_2</t>
   </si>
   <si>
     <t>30_2</t>
   </si>
   <si>
+    <t>5_95</t>
+  </si>
+  <si>
+    <t>8_95</t>
+  </si>
+  <si>
     <t>800_2</t>
   </si>
   <si>
     <t>40_2</t>
   </si>
   <si>
+    <t>5_102</t>
+  </si>
+  <si>
+    <t>8_102</t>
+  </si>
+  <si>
     <t>KitchenConsole</t>
   </si>
   <si>
+    <t>5_103</t>
+  </si>
+  <si>
+    <t>8_103</t>
+  </si>
+  <si>
+    <t>5_104</t>
+  </si>
+  <si>
+    <t>8_104</t>
+  </si>
+  <si>
+    <t>5_105</t>
+  </si>
+  <si>
+    <t>8_105</t>
+  </si>
+  <si>
+    <t>5_97</t>
+  </si>
+  <si>
+    <t>8_97</t>
+  </si>
+  <si>
     <t>Receive</t>
   </si>
   <si>
+    <t>5_98</t>
+  </si>
+  <si>
+    <t>8_98</t>
+  </si>
+  <si>
+    <t>5_99</t>
+  </si>
+  <si>
+    <t>8_99</t>
+  </si>
+  <si>
+    <t>5_100</t>
+  </si>
+  <si>
+    <t>8_100</t>
+  </si>
+  <si>
+    <t>5_107</t>
+  </si>
+  <si>
+    <t>8_107</t>
+  </si>
+  <si>
     <t>Dishwasher</t>
   </si>
   <si>
+    <t>5_108</t>
+  </si>
+  <si>
+    <t>8_108</t>
+  </si>
+  <si>
+    <t>5_109</t>
+  </si>
+  <si>
+    <t>8_109</t>
+  </si>
+  <si>
+    <t>5_110</t>
+  </si>
+  <si>
+    <t>8_110</t>
+  </si>
+  <si>
+    <t>5_87</t>
+  </si>
+  <si>
+    <t>8_87</t>
+  </si>
+  <si>
     <t>CookingBench</t>
   </si>
   <si>
+    <t>5_88</t>
+  </si>
+  <si>
+    <t>8_88</t>
+  </si>
+  <si>
+    <t>5_89</t>
+  </si>
+  <si>
+    <t>8_89</t>
+  </si>
+  <si>
+    <t>5_90</t>
+  </si>
+  <si>
+    <t>8_90</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -519,12 +636,33 @@
     <t>二楼包间 落地灯</t>
   </si>
   <si>
-    <t>1_2</t>
+    <t>6_32</t>
+  </si>
+  <si>
+    <t>9_32</t>
   </si>
   <si>
     <t>Floorlamp</t>
   </si>
   <si>
+    <t>6_33</t>
+  </si>
+  <si>
+    <t>9_33</t>
+  </si>
+  <si>
+    <t>6_34</t>
+  </si>
+  <si>
+    <t>9_34</t>
+  </si>
+  <si>
+    <t>6_35</t>
+  </si>
+  <si>
+    <t>9_35</t>
+  </si>
+  <si>
     <t>露台 椅子</t>
   </si>
   <si>
@@ -558,9 +696,33 @@
     <t>露台底座</t>
   </si>
   <si>
+    <t>5_72</t>
+  </si>
+  <si>
+    <t>8_72</t>
+  </si>
+  <si>
     <t>Carpet</t>
   </si>
   <si>
+    <t>5_73</t>
+  </si>
+  <si>
+    <t>8_73</t>
+  </si>
+  <si>
+    <t>5_74</t>
+  </si>
+  <si>
+    <t>8_74</t>
+  </si>
+  <si>
+    <t>5_75</t>
+  </si>
+  <si>
+    <t>8_75</t>
+  </si>
+  <si>
     <t>取餐区</t>
   </si>
   <si>
@@ -594,40 +756,208 @@
     <t>隔断</t>
   </si>
   <si>
+    <t>5_52</t>
+  </si>
+  <si>
+    <t>8_52</t>
+  </si>
+  <si>
     <t>Partition</t>
   </si>
   <si>
+    <t>5_53</t>
+  </si>
+  <si>
+    <t>8_53</t>
+  </si>
+  <si>
+    <t>5_54</t>
+  </si>
+  <si>
+    <t>8_54</t>
+  </si>
+  <si>
+    <t>5_55</t>
+  </si>
+  <si>
+    <t>8_55</t>
+  </si>
+  <si>
     <t>镜子</t>
   </si>
   <si>
+    <t>5_62</t>
+  </si>
+  <si>
+    <t>8_62</t>
+  </si>
+  <si>
     <t>Mirror</t>
   </si>
   <si>
+    <t>5_63</t>
+  </si>
+  <si>
+    <t>8_63</t>
+  </si>
+  <si>
+    <t>5_64</t>
+  </si>
+  <si>
+    <t>8_64</t>
+  </si>
+  <si>
+    <t>5_65</t>
+  </si>
+  <si>
+    <t>8_65</t>
+  </si>
+  <si>
     <t>洗脸池</t>
   </si>
   <si>
+    <t>5_67</t>
+  </si>
+  <si>
+    <t>8_67</t>
+  </si>
+  <si>
     <t>Washbasin</t>
   </si>
   <si>
+    <t>5_68</t>
+  </si>
+  <si>
+    <t>8_68</t>
+  </si>
+  <si>
+    <t>5_69</t>
+  </si>
+  <si>
+    <t>8_69</t>
+  </si>
+  <si>
+    <t>5_70</t>
+  </si>
+  <si>
+    <t>8_70</t>
+  </si>
+  <si>
     <t>地板</t>
   </si>
   <si>
+    <t>5_57</t>
+  </si>
+  <si>
+    <t>8_57</t>
+  </si>
+  <si>
     <t>Floor</t>
   </si>
   <si>
+    <t>5_58</t>
+  </si>
+  <si>
+    <t>8_58</t>
+  </si>
+  <si>
+    <t>5_59</t>
+  </si>
+  <si>
+    <t>8_59</t>
+  </si>
+  <si>
+    <t>5_60</t>
+  </si>
+  <si>
+    <t>8_60</t>
+  </si>
+  <si>
     <t>酒吧 吧台</t>
   </si>
   <si>
+    <t>4_32</t>
+  </si>
+  <si>
+    <t>7_32</t>
+  </si>
+  <si>
     <t>Bar</t>
   </si>
   <si>
+    <t>4_33</t>
+  </si>
+  <si>
+    <t>7_33</t>
+  </si>
+  <si>
+    <t>4_34</t>
+  </si>
+  <si>
+    <t>7_34</t>
+  </si>
+  <si>
+    <t>4_35</t>
+  </si>
+  <si>
+    <t>7_35</t>
+  </si>
+  <si>
     <t>酒吧 桌子</t>
   </si>
   <si>
+    <t>5_77</t>
+  </si>
+  <si>
+    <t>8_77</t>
+  </si>
+  <si>
+    <t>5_78</t>
+  </si>
+  <si>
+    <t>8_78</t>
+  </si>
+  <si>
+    <t>5_79</t>
+  </si>
+  <si>
+    <t>8_79</t>
+  </si>
+  <si>
+    <t>5_80</t>
+  </si>
+  <si>
+    <t>8_80</t>
+  </si>
+  <si>
     <t>酒吧 凳子</t>
   </si>
   <si>
+    <t>5_82</t>
+  </si>
+  <si>
+    <t>8_82</t>
+  </si>
+  <si>
     <t>Stool</t>
+  </si>
+  <si>
+    <t>5_83</t>
+  </si>
+  <si>
+    <t>8_83</t>
+  </si>
+  <si>
+    <t>5_84</t>
+  </si>
+  <si>
+    <t>8_84</t>
+  </si>
+  <si>
+    <t>5_85</t>
+  </si>
+  <si>
+    <t>8_85</t>
   </si>
 </sst>
 </file>
@@ -635,9 +965,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -684,87 +1014,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,8 +1036,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,7 +1115,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,13 +1157,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +1187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +1205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +1223,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +1265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,19 +1277,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,19 +1307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,61 +1331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,15 +1342,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1039,35 +1360,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,17 +1390,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,6 +1409,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1123,7 +1453,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,137 +1462,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,12 +1611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1294,9 +1618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1655,518 +1976,518 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="16.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>12001</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>12002</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>12003</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>12004</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>12005</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="5">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>12006</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>12007</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="5">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>12008</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="5">
         <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>12009</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="5">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>12010</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>12011</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="5">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>12012</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="5">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>12013</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="5">
         <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>12014</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="5">
         <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11">
+      <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="5">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11">
+      <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="5">
         <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11">
+      <c r="A21" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="5">
         <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11">
+      <c r="A22" s="5">
         <v>6</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="5">
         <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11">
+      <c r="A23" s="5">
         <v>7</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="5">
         <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11">
+      <c r="A24" s="5">
         <v>8</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="5">
         <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11">
+      <c r="A25" s="5">
         <v>9</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="5">
         <v>208</v>
       </c>
     </row>
@@ -2182,78 +2503,78 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.425" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="13.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.975" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.8666666666667" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="20.425" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.975" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2261,28 +2582,28 @@
       <c r="A3" s="3">
         <v>22010</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="6">
+      <c r="F3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="1">
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="6">
+        <v>125</v>
+      </c>
+      <c r="I3" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2290,28 +2611,28 @@
       <c r="A4" s="3">
         <v>22010</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="6">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="I4" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2319,28 +2640,28 @@
       <c r="A5" s="3">
         <v>22010</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="1">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="6">
+        <v>125</v>
+      </c>
+      <c r="I5" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2348,28 +2669,28 @@
       <c r="A6" s="3">
         <v>22010</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="6">
+        <v>125</v>
+      </c>
+      <c r="I6" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2377,28 +2698,28 @@
       <c r="A7" s="3">
         <v>22011</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="6">
+        <v>140</v>
+      </c>
+      <c r="I7" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2406,28 +2727,28 @@
       <c r="A8" s="3">
         <v>22011</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="C8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="1">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="6">
+        <v>140</v>
+      </c>
+      <c r="I8" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2435,28 +2756,28 @@
       <c r="A9" s="3">
         <v>22011</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="C9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="1">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="6">
+        <v>140</v>
+      </c>
+      <c r="I9" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2464,28 +2785,28 @@
       <c r="A10" s="3">
         <v>22011</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="6">
+        <v>140</v>
+      </c>
+      <c r="I10" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2493,28 +2814,28 @@
       <c r="A11" s="3">
         <v>22012</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="6">
+      <c r="F11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="1">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="6">
+        <v>149</v>
+      </c>
+      <c r="I11" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2522,28 +2843,28 @@
       <c r="A12" s="3">
         <v>22012</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="C12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="1">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="6">
+        <v>149</v>
+      </c>
+      <c r="I12" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2551,28 +2872,28 @@
       <c r="A13" s="3">
         <v>22012</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="C13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="1">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="6">
+        <v>149</v>
+      </c>
+      <c r="I13" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2580,28 +2901,28 @@
       <c r="A14" s="3">
         <v>22012</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="C14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="1">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="6">
+        <v>149</v>
+      </c>
+      <c r="I14" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2609,28 +2930,28 @@
       <c r="A15" s="3">
         <v>22013</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="C15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="6">
+      <c r="F15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="H15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2638,28 +2959,28 @@
       <c r="A16" s="3">
         <v>22013</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="C16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="H16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2667,28 +2988,28 @@
       <c r="A17" s="3">
         <v>22013</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="C17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="1">
         <v>5</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="H17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2696,28 +3017,28 @@
       <c r="A18" s="3">
         <v>22013</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="C18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="1">
         <v>5</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="H18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2725,28 +3046,28 @@
       <c r="A19" s="3">
         <v>22014</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="C19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="6">
+      <c r="F19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="1">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="6">
+        <v>167</v>
+      </c>
+      <c r="I19" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2754,28 +3075,28 @@
       <c r="A20" s="3">
         <v>22014</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="1">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="6">
+        <v>167</v>
+      </c>
+      <c r="I20" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2783,28 +3104,28 @@
       <c r="A21" s="3">
         <v>22014</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="C21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="1">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="6">
+        <v>167</v>
+      </c>
+      <c r="I21" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2812,28 +3133,28 @@
       <c r="A22" s="3">
         <v>22014</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="C22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="1">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="6">
+        <v>167</v>
+      </c>
+      <c r="I22" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2849,8 +3170,8 @@
   <sheetPr/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2868,34 +3189,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2909,7 +3230,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -2927,7 +3248,7 @@
         <v>120</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2935,25 +3256,25 @@
         <v>22001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
@@ -2967,25 +3288,25 @@
         <v>22001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
@@ -2999,25 +3320,25 @@
         <v>22001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
@@ -3031,25 +3352,25 @@
         <v>22001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -3063,25 +3384,25 @@
         <v>22003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
@@ -3095,25 +3416,25 @@
         <v>22003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
@@ -3127,25 +3448,25 @@
         <v>22003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -3159,25 +3480,25 @@
         <v>22003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
@@ -3191,25 +3512,25 @@
         <v>32007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
@@ -3223,25 +3544,25 @@
         <v>32007</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
@@ -3255,25 +3576,25 @@
         <v>32007</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
@@ -3287,25 +3608,25 @@
         <v>32007</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
@@ -3319,25 +3640,25 @@
         <v>22004</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
@@ -3351,25 +3672,25 @@
         <v>22004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
@@ -3383,25 +3704,25 @@
         <v>22004</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
@@ -3415,25 +3736,25 @@
         <v>22004</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
@@ -3447,25 +3768,25 @@
         <v>32011</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
@@ -3479,25 +3800,25 @@
         <v>32011</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
@@ -3511,25 +3832,25 @@
         <v>32011</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
@@ -3543,25 +3864,25 @@
         <v>32011</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -3575,25 +3896,25 @@
         <v>22006</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
@@ -3607,25 +3928,25 @@
         <v>22006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
@@ -3639,25 +3960,25 @@
         <v>22006</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
@@ -3671,25 +3992,25 @@
         <v>22006</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
@@ -3703,25 +4024,25 @@
         <v>22015</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
@@ -3735,25 +4056,25 @@
         <v>22015</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
@@ -3767,25 +4088,25 @@
         <v>22015</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
@@ -3799,25 +4120,25 @@
         <v>22015</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
@@ -3831,25 +4152,25 @@
         <v>22016</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
@@ -3863,25 +4184,25 @@
         <v>22016</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
@@ -3895,25 +4216,25 @@
         <v>22016</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
@@ -3927,25 +4248,25 @@
         <v>22016</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
@@ -3959,25 +4280,25 @@
         <v>22017</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
@@ -3991,25 +4312,25 @@
         <v>22017</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
@@ -4023,25 +4344,25 @@
         <v>22017</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
@@ -4055,25 +4376,25 @@
         <v>22017</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
@@ -4087,25 +4408,25 @@
         <v>22018</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="I39" s="1">
         <v>10</v>
@@ -4119,25 +4440,25 @@
         <v>22018</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="I40" s="1">
         <v>10</v>
@@ -4151,25 +4472,25 @@
         <v>22018</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="I41" s="1">
         <v>10</v>
@@ -4183,25 +4504,25 @@
         <v>22018</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="I42" s="1">
         <v>10</v>
@@ -4215,25 +4536,25 @@
         <v>12007</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I43" s="1">
         <v>10</v>
@@ -4247,25 +4568,25 @@
         <v>12007</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I44" s="1">
         <v>10</v>
@@ -4279,25 +4600,25 @@
         <v>12007</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I45" s="1">
         <v>10</v>
@@ -4311,25 +4632,25 @@
         <v>12007</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>121</v>
+        <v>293</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I46" s="1">
         <v>10</v>
@@ -4343,25 +4664,25 @@
         <v>32009</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I47" s="1">
         <v>10</v>
@@ -4375,25 +4696,25 @@
         <v>32009</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I48" s="1">
         <v>10</v>
@@ -4407,25 +4728,25 @@
         <v>32009</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I49" s="1">
         <v>10</v>
@@ -4439,25 +4760,25 @@
         <v>32009</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I50" s="1">
         <v>10</v>
@@ -4471,25 +4792,25 @@
         <v>32010</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>121</v>
+        <v>305</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="I51" s="1">
         <v>10</v>
@@ -4503,25 +4824,25 @@
         <v>32010</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="I52" s="1">
         <v>10</v>
@@ -4535,25 +4856,25 @@
         <v>32010</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>121</v>
+        <v>310</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>121</v>
+        <v>311</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="I53" s="1">
         <v>10</v>
@@ -4567,25 +4888,25 @@
         <v>32010</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>121</v>
+        <v>313</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="I54" s="1">
         <v>10</v>

--- a/project/OtherAssets/Excle/A_Default/厨房.xlsx
+++ b/project/OtherAssets/Excle/A_Default/厨房.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23085" windowHeight="10620" activeTab="2"/>
+    <workbookView windowWidth="17190" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="AreaUnlock" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="318">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,9 @@
     <t>解锁需要的金币</t>
   </si>
   <si>
+    <t>AB包名</t>
+  </si>
+  <si>
     <t>id_i</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>needCoin_i</t>
   </si>
   <si>
+    <t>abName_s</t>
+  </si>
+  <si>
     <t>披萨机</t>
   </si>
   <si>
@@ -66,6 +72,9 @@
     <t>7_1</t>
   </si>
   <si>
+    <t>BuildTex</t>
+  </si>
+  <si>
     <t>巨无霸取餐台</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>13_2</t>
+  </si>
+  <si>
+    <t>AreaTexture</t>
   </si>
   <si>
     <t>吧台用餐区</t>
@@ -966,9 +978,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -992,10 +1004,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1014,7 +1035,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,69 +1046,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1114,6 +1072,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1121,9 +1126,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,31 +1163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,13 +1187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,85 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,19 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,7 +1241,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,6 +1354,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1356,6 +1386,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,6 +1431,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1389,59 +1454,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1450,10 +1462,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1462,133 +1474,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1974,13 +1986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
@@ -1988,10 +2000,11 @@
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2010,485 +2023,560 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>12001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="7">
         <v>12002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>12003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5">
         <v>188</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>12004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5">
         <v>189</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>12005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="7">
         <v>12006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5">
         <v>191</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>12007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5">
         <v>192</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="7">
         <v>12008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" s="5">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="7">
         <v>12009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5">
         <v>194</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="7">
         <v>12010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="7">
         <v>12011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
         <v>196</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="7">
         <v>12012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" s="5">
         <v>197</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="7">
         <v>12013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15" s="5">
         <v>198</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="7">
         <v>12014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F16" s="5">
         <v>199</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F17" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="5">
         <v>2</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F18" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="5">
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F19" s="5">
         <v>202</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="5">
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F20" s="5">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="5">
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F21" s="5">
         <v>204</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="5">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F22" s="5">
         <v>205</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="5">
         <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F23" s="5">
         <v>206</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="5">
         <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F24" s="5">
         <v>207</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="5">
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F25" s="5">
         <v>208</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2522,60 +2610,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2586,22 +2674,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
@@ -2615,22 +2703,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
@@ -2644,22 +2732,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
@@ -2673,22 +2761,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -2702,22 +2790,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
@@ -2731,22 +2819,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
@@ -2760,22 +2848,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -2789,22 +2877,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
@@ -2818,22 +2906,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
@@ -2847,22 +2935,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
@@ -2876,22 +2964,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
@@ -2905,22 +2993,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
@@ -2934,22 +3022,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1">
         <v>5</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
@@ -2963,22 +3051,22 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
@@ -2992,22 +3080,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
@@ -3021,22 +3109,22 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G18" s="1">
         <v>5</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
@@ -3050,22 +3138,22 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G19" s="1">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
@@ -3079,22 +3167,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G20" s="1">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
@@ -3108,22 +3196,22 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
@@ -3137,22 +3225,22 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -3170,7 +3258,7 @@
   <sheetPr/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3189,66 +3277,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3256,25 +3344,25 @@
         <v>22001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
@@ -3288,25 +3376,25 @@
         <v>22001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
@@ -3320,25 +3408,25 @@
         <v>22001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
@@ -3352,25 +3440,25 @@
         <v>22001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -3384,25 +3472,25 @@
         <v>22003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
@@ -3416,25 +3504,25 @@
         <v>22003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
@@ -3448,25 +3536,25 @@
         <v>22003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -3480,25 +3568,25 @@
         <v>22003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
@@ -3512,25 +3600,25 @@
         <v>32007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
@@ -3544,25 +3632,25 @@
         <v>32007</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
@@ -3576,25 +3664,25 @@
         <v>32007</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
@@ -3608,25 +3696,25 @@
         <v>32007</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
@@ -3640,25 +3728,25 @@
         <v>22004</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
@@ -3672,25 +3760,25 @@
         <v>22004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
@@ -3704,25 +3792,25 @@
         <v>22004</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
@@ -3736,25 +3824,25 @@
         <v>22004</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
@@ -3768,25 +3856,25 @@
         <v>32011</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
@@ -3800,25 +3888,25 @@
         <v>32011</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
@@ -3832,25 +3920,25 @@
         <v>32011</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
@@ -3864,25 +3952,25 @@
         <v>32011</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -3896,25 +3984,25 @@
         <v>22006</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
@@ -3928,25 +4016,25 @@
         <v>22006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
@@ -3960,25 +4048,25 @@
         <v>22006</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
@@ -3992,25 +4080,25 @@
         <v>22006</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
@@ -4024,25 +4112,25 @@
         <v>22015</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
@@ -4056,25 +4144,25 @@
         <v>22015</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
@@ -4088,25 +4176,25 @@
         <v>22015</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
@@ -4120,25 +4208,25 @@
         <v>22015</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
@@ -4152,25 +4240,25 @@
         <v>22016</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
@@ -4184,25 +4272,25 @@
         <v>22016</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
@@ -4216,25 +4304,25 @@
         <v>22016</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
@@ -4248,25 +4336,25 @@
         <v>22016</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
@@ -4280,25 +4368,25 @@
         <v>22017</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
@@ -4312,25 +4400,25 @@
         <v>22017</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
@@ -4344,25 +4432,25 @@
         <v>22017</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
@@ -4376,25 +4464,25 @@
         <v>22017</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
@@ -4408,25 +4496,25 @@
         <v>22018</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I39" s="1">
         <v>10</v>
@@ -4440,25 +4528,25 @@
         <v>22018</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I40" s="1">
         <v>10</v>
@@ -4472,25 +4560,25 @@
         <v>22018</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="I41" s="1">
         <v>10</v>
@@ -4504,25 +4592,25 @@
         <v>22018</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I42" s="1">
         <v>10</v>
@@ -4536,25 +4624,25 @@
         <v>12007</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I43" s="1">
         <v>10</v>
@@ -4568,25 +4656,25 @@
         <v>12007</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I44" s="1">
         <v>10</v>
@@ -4600,25 +4688,25 @@
         <v>12007</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="I45" s="1">
         <v>10</v>
@@ -4632,25 +4720,25 @@
         <v>12007</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I46" s="1">
         <v>10</v>
@@ -4664,25 +4752,25 @@
         <v>32009</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I47" s="1">
         <v>10</v>
@@ -4696,25 +4784,25 @@
         <v>32009</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I48" s="1">
         <v>10</v>
@@ -4728,25 +4816,25 @@
         <v>32009</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I49" s="1">
         <v>10</v>
@@ -4760,25 +4848,25 @@
         <v>32009</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I50" s="1">
         <v>10</v>
@@ -4792,25 +4880,25 @@
         <v>32010</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I51" s="1">
         <v>10</v>
@@ -4824,25 +4912,25 @@
         <v>32010</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I52" s="1">
         <v>10</v>
@@ -4856,25 +4944,25 @@
         <v>32010</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="I53" s="1">
         <v>10</v>
@@ -4888,25 +4976,25 @@
         <v>32010</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I54" s="1">
         <v>10</v>

--- a/project/OtherAssets/Excle/A_Default/厨房.xlsx
+++ b/project/OtherAssets/Excle/A_Default/厨房.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="10620"/>
+    <workbookView windowWidth="17190" windowHeight="10620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AreaUnlock" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>8_77</t>
+  </si>
+  <si>
+    <t>Table</t>
   </si>
   <si>
     <t>5_78</t>
@@ -1988,7 +1991,7 @@
   <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2590,7 +2593,7 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -3258,8 +3261,8 @@
   <sheetPr/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4770,7 +4773,7 @@
         <v>128</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="I47" s="1">
         <v>10</v>
@@ -4790,19 +4793,19 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="I48" s="1">
         <v>10</v>
@@ -4822,10 +4825,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>128</v>
@@ -4834,7 +4837,7 @@
         <v>128</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="I49" s="1">
         <v>10</v>
@@ -4854,10 +4857,10 @@
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>128</v>
@@ -4866,7 +4869,7 @@
         <v>128</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="I50" s="1">
         <v>10</v>
@@ -4880,16 +4883,16 @@
         <v>32010</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>128</v>
@@ -4898,7 +4901,7 @@
         <v>128</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I51" s="1">
         <v>10</v>
@@ -4912,25 +4915,25 @@
         <v>32010</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="I52" s="1">
         <v>10</v>
@@ -4944,16 +4947,16 @@
         <v>32010</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C53" s="1">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>128</v>
@@ -4962,7 +4965,7 @@
         <v>128</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I53" s="1">
         <v>10</v>
@@ -4976,16 +4979,16 @@
         <v>32010</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C54" s="1">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>128</v>
@@ -4994,7 +4997,7 @@
         <v>128</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I54" s="1">
         <v>10</v>
